--- a/excel/单位分类.xlsx
+++ b/excel/单位分类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="1" r:id="rId1"/>
@@ -1632,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="M118" sqref="M118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3106,7 +3106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
